--- a/data/trans_orig/P1422-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9803A3C-F890-402B-972C-3828FA7A2A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1B055C-1481-4D56-BFA2-FD0EE5AA70CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4E99FBB-8607-429E-9A92-BAB0882A1E05}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F8DC4D7-AD44-4E18-B9AA-68324222BFBB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="329">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -85,928 +85,946 @@
     <t>2,09%</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>98,98%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80CDE1A-F16D-4034-B82B-647986001687}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21AF06B-25EC-40EF-A0CA-0785B430E769}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1867,10 +1885,10 @@
         <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,13 +1903,13 @@
         <v>321121</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>315</v>
@@ -1900,13 +1918,13 @@
         <v>338852</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>631</v>
@@ -1915,13 +1933,13 @@
         <v>659973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,7 +1995,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1989,13 +2007,13 @@
         <v>7625</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2004,13 +2022,13 @@
         <v>5037</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2019,13 +2037,13 @@
         <v>12662</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +2058,13 @@
         <v>661095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>622</v>
@@ -2055,13 +2073,13 @@
         <v>671159</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1240</v>
@@ -2070,13 +2088,13 @@
         <v>1332254</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,7 +2150,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2144,13 +2162,13 @@
         <v>3235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2159,13 +2177,13 @@
         <v>3923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2174,13 +2192,13 @@
         <v>7158</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2213,13 @@
         <v>209383</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>208</v>
@@ -2210,13 +2228,13 @@
         <v>215668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -2225,13 +2243,13 @@
         <v>425051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,7 +2305,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2299,13 +2317,13 @@
         <v>959</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2314,13 +2332,13 @@
         <v>2157</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2329,13 +2347,13 @@
         <v>3115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2368,13 @@
         <v>273022</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" s="7">
         <v>266</v>
@@ -2365,13 +2383,13 @@
         <v>275939</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2380,13 +2398,13 @@
         <v>548962</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,7 +2460,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2454,13 +2472,13 @@
         <v>1878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2469,13 +2487,13 @@
         <v>4233</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2484,13 +2502,13 @@
         <v>6111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2523,13 @@
         <v>660910</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>632</v>
@@ -2520,13 +2538,13 @@
         <v>689620</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>1248</v>
@@ -2535,13 +2553,13 @@
         <v>1350530</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,7 +2615,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2609,13 +2627,13 @@
         <v>6417</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2624,13 +2642,13 @@
         <v>3321</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -2639,13 +2657,13 @@
         <v>9738</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2678,13 @@
         <v>772681</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="H26" s="7">
         <v>753</v>
@@ -2675,13 +2693,13 @@
         <v>819257</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>1464</v>
@@ -2690,13 +2708,13 @@
         <v>1591938</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,10 +2800,10 @@
         <v>128</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>54</v>
@@ -2794,13 +2812,13 @@
         <v>59001</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2833,13 @@
         <v>3393157</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7">
         <v>3272</v>
@@ -2830,28 +2848,28 @@
         <v>3529719</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>6451</v>
       </c>
       <c r="N29" s="7">
-        <v>6922876</v>
+        <v>6922877</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>138</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,7 +2911,7 @@
         <v>6505</v>
       </c>
       <c r="N30" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -2907,7 +2925,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2931,7 +2949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B440A2E5-2E37-4166-9AF2-BFA58094D881}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1B18A0-CB51-4C63-94C7-942D45ECBA5C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2948,7 +2966,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3055,13 +3073,13 @@
         <v>2529</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3073,10 +3091,10 @@
         <v>38</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3085,13 +3103,13 @@
         <v>2529</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3124,13 @@
         <v>291232</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>277</v>
@@ -3121,10 +3139,10 @@
         <v>288703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>32</v>
@@ -3136,13 +3154,13 @@
         <v>579935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3228,13 @@
         <v>6191</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3228,10 +3246,10 @@
         <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3240,13 +3258,13 @@
         <v>6191</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3279,13 @@
         <v>496384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>484</v>
@@ -3276,10 +3294,10 @@
         <v>523084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>32</v>
@@ -3294,10 +3312,10 @@
         <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3383,13 @@
         <v>2433</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3380,13 +3398,13 @@
         <v>997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3395,13 +3413,13 @@
         <v>3430</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,7 +3434,7 @@
         <v>316132</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>170</v>
@@ -3431,13 +3449,13 @@
         <v>335312</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>663</v>
@@ -3446,13 +3464,13 @@
         <v>651444</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,7 +3526,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3520,13 +3538,13 @@
         <v>2889</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3535,13 +3553,13 @@
         <v>5368</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3550,13 +3568,13 @@
         <v>8258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,10 +3589,10 @@
         <v>367075</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>171</v>
@@ -3586,13 +3604,13 @@
         <v>381915</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>705</v>
@@ -3601,13 +3619,13 @@
         <v>748989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,7 +3681,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3675,13 +3693,13 @@
         <v>3731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3690,13 +3708,13 @@
         <v>4640</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3705,13 +3723,13 @@
         <v>8371</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3744,13 @@
         <v>207490</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -3741,13 +3759,13 @@
         <v>213947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -3756,13 +3774,13 @@
         <v>421437</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3836,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3848,10 +3866,10 @@
         <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3866,7 +3884,7 @@
         <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3899,13 @@
         <v>262175</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" s="7">
         <v>263</v>
@@ -3896,10 +3914,10 @@
         <v>273115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>32</v>
@@ -3911,13 +3929,13 @@
         <v>535290</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,7 +3991,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3985,13 +4003,13 @@
         <v>2846</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4000,13 +4018,13 @@
         <v>4773</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>202</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -4015,13 +4033,13 @@
         <v>7619</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4054,13 @@
         <v>653712</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>642</v>
@@ -4051,13 +4069,13 @@
         <v>686521</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M23" s="7">
         <v>1220</v>
@@ -4066,13 +4084,13 @@
         <v>1340233</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,7 +4146,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4143,10 +4161,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4155,13 +4173,13 @@
         <v>5022</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4170,13 +4188,13 @@
         <v>5022</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,10 +4209,10 @@
         <v>778583</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>32</v>
@@ -4206,13 +4224,13 @@
         <v>821145</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>1501</v>
@@ -4221,13 +4239,13 @@
         <v>1599728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,10 +4316,10 @@
         <v>37</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4310,13 +4328,13 @@
         <v>20800</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="M28" s="7">
         <v>39</v>
@@ -4325,13 +4343,13 @@
         <v>42368</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4364,13 @@
         <v>3372782</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H29" s="7">
         <v>3321</v>
@@ -4361,13 +4379,13 @@
         <v>3523742</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="M29" s="7">
         <v>6530</v>
@@ -4376,13 +4394,13 @@
         <v>6896524</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,7 +4456,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4462,7 +4480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B88FCD-32B1-4D00-A5B4-0296BB018A0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C8BEAC-6245-48F2-A47F-FBBBBFAD0011}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4586,7 +4604,7 @@
         <v>742</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>38</v>
@@ -4601,13 +4619,13 @@
         <v>952</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4616,13 +4634,13 @@
         <v>1694</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4655,13 @@
         <v>259556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="7">
         <v>536</v>
@@ -4652,13 +4670,13 @@
         <v>270451</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" s="7">
         <v>866</v>
@@ -4667,10 +4685,10 @@
         <v>530006</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>236</v>
@@ -4741,10 +4759,10 @@
         <v>4296</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>238</v>
@@ -4759,7 +4777,7 @@
         <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>239</v>
@@ -4774,10 +4792,10 @@
         <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4810,13 @@
         <v>512049</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>711</v>
@@ -4807,13 +4825,13 @@
         <v>549595</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>1086</v>
@@ -4822,13 +4840,13 @@
         <v>1061644</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4914,13 @@
         <v>9541</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4911,13 +4929,13 @@
         <v>4460</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -4926,13 +4944,13 @@
         <v>14001</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4965,13 @@
         <v>312699</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
@@ -4962,13 +4980,13 @@
         <v>368824</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>874</v>
@@ -4977,13 +4995,13 @@
         <v>681523</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,7 +5057,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5057,7 +5075,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5066,13 +5084,13 @@
         <v>4667</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5081,13 +5099,13 @@
         <v>7554</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5120,13 @@
         <v>319353</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -5117,13 +5135,13 @@
         <v>423889</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>880</v>
@@ -5194,7 +5212,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5209,10 +5227,10 @@
         <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5221,10 +5239,10 @@
         <v>2932</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>276</v>
@@ -5239,10 +5257,10 @@
         <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>22</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5275,13 @@
         <v>192866</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>483</v>
@@ -5272,13 +5290,13 @@
         <v>228564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="M17" s="7">
         <v>756</v>
@@ -5287,13 +5305,13 @@
         <v>421430</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>30</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,7 +5367,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5361,13 +5379,13 @@
         <v>6137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -5376,13 +5394,13 @@
         <v>4655</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5391,13 +5409,13 @@
         <v>10792</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>290</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5430,13 @@
         <v>271086</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>449</v>
@@ -5427,13 +5445,13 @@
         <v>270250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>808</v>
@@ -5442,13 +5460,13 @@
         <v>541335</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,7 +5522,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5516,13 +5534,13 @@
         <v>6584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -5531,13 +5549,13 @@
         <v>8984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -5546,13 +5564,13 @@
         <v>15568</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5585,13 @@
         <v>620393</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>300</v>
+        <v>137</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="H23" s="7">
         <v>942</v>
@@ -5582,13 +5600,13 @@
         <v>794195</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="M23" s="7">
         <v>1532</v>
@@ -5597,13 +5615,13 @@
         <v>1414588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,7 +5677,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5671,13 +5689,13 @@
         <v>11149</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>75</v>
+        <v>309</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -5686,13 +5704,13 @@
         <v>7595</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -5701,13 +5719,13 @@
         <v>18745</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5740,13 @@
         <v>848279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>311</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>85</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>1051</v>
@@ -5737,13 +5755,13 @@
         <v>858077</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>1801</v>
@@ -5752,13 +5770,13 @@
         <v>1706355</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5844,13 @@
         <v>45219</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -5841,13 +5859,13 @@
         <v>38490</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M28" s="7">
         <v>126</v>
@@ -5856,13 +5874,13 @@
         <v>83709</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5895,13 @@
         <v>3336279</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>119</v>
+        <v>325</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="H29" s="7">
         <v>5290</v>
@@ -5895,10 +5913,10 @@
         <v>270</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="M29" s="7">
         <v>8603</v>
@@ -5907,13 +5925,13 @@
         <v>7100125</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,7 +5987,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1422-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1B055C-1481-4D56-BFA2-FD0EE5AA70CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84F762F4-32B5-42BB-A04C-4CB314A8826D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F8DC4D7-AD44-4E18-B9AA-68324222BFBB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51E82AC3-AA6E-4529-8BFE-53B5F5A52A77}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="321">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -85,946 +85,922 @@
     <t>2,09%</t>
   </si>
   <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21AF06B-25EC-40EF-A0CA-0785B430E769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709C9DB7-DCCD-4AFA-BBE3-78875AB8F3F8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2022,13 +1998,13 @@
         <v>5037</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2037,13 +2013,13 @@
         <v>12662</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2034,13 @@
         <v>661095</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>622</v>
@@ -2073,13 +2049,13 @@
         <v>671159</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>1240</v>
@@ -2088,13 +2064,13 @@
         <v>1332254</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,7 +2126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2162,13 +2138,13 @@
         <v>3235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2177,13 +2153,13 @@
         <v>3923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2192,13 +2168,13 @@
         <v>7158</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,13 +2189,13 @@
         <v>209383</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>208</v>
@@ -2228,13 +2204,13 @@
         <v>215668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -2243,13 +2219,13 @@
         <v>425051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,7 +2281,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2317,13 +2293,13 @@
         <v>959</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2332,13 +2308,13 @@
         <v>2157</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2347,13 +2323,13 @@
         <v>3115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,10 +2344,10 @@
         <v>273022</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>48</v>
@@ -2383,10 +2359,10 @@
         <v>275939</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>48</v>
@@ -2398,13 +2374,13 @@
         <v>548962</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,7 +2436,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2472,13 +2448,13 @@
         <v>1878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2487,13 +2463,13 @@
         <v>4233</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2502,13 +2478,13 @@
         <v>6111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,10 +2499,10 @@
         <v>660910</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>48</v>
@@ -2538,13 +2514,13 @@
         <v>689620</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>1248</v>
@@ -2553,13 +2529,13 @@
         <v>1350530</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,10 +2606,10 @@
         <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2642,13 +2618,13 @@
         <v>3321</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -2657,10 +2633,10 @@
         <v>9738</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>118</v>
@@ -2681,10 +2657,10 @@
         <v>119</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="H26" s="7">
         <v>753</v>
@@ -2693,13 +2669,13 @@
         <v>819257</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>1464</v>
@@ -2708,13 +2684,13 @@
         <v>1591938</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,7 +2776,7 @@
         <v>128</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>129</v>
@@ -2812,13 +2788,13 @@
         <v>59001</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2809,13 @@
         <v>3393157</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H29" s="7">
         <v>3272</v>
@@ -2848,28 +2824,28 @@
         <v>3529719</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M29" s="7">
         <v>6451</v>
       </c>
       <c r="N29" s="7">
-        <v>6922877</v>
+        <v>6922876</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,7 +2887,7 @@
         <v>6505</v>
       </c>
       <c r="N30" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -2925,7 +2901,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2949,7 +2925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1B18A0-CB51-4C63-94C7-942D45ECBA5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA94D51-3E6C-4D60-A721-3CF34D7D18DD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2966,7 +2942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3073,13 +3049,13 @@
         <v>2529</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3091,10 +3067,10 @@
         <v>38</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3103,13 +3079,13 @@
         <v>2529</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3100,13 @@
         <v>291232</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="H5" s="7">
         <v>277</v>
@@ -3142,7 +3118,7 @@
         <v>48</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>32</v>
@@ -3154,13 +3130,13 @@
         <v>579935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3204,13 @@
         <v>6191</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3246,10 +3222,10 @@
         <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3258,13 +3234,13 @@
         <v>6191</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3255,13 @@
         <v>496384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>484</v>
@@ -3297,7 +3273,7 @@
         <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>32</v>
@@ -3309,10 +3285,10 @@
         <v>1019468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>28</v>
@@ -3383,13 +3359,13 @@
         <v>2433</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3398,13 +3374,13 @@
         <v>997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3413,13 +3389,13 @@
         <v>3430</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3410,13 @@
         <v>316132</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>331</v>
@@ -3449,10 +3425,10 @@
         <v>335312</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>48</v>
@@ -3464,13 +3440,13 @@
         <v>651444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3514,13 @@
         <v>2889</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3553,13 +3529,13 @@
         <v>5368</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3568,13 +3544,13 @@
         <v>8258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3565,13 @@
         <v>367075</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>354</v>
@@ -3604,13 +3580,13 @@
         <v>381915</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
         <v>705</v>
@@ -3619,13 +3595,13 @@
         <v>748989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,7 +3657,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3693,13 +3669,13 @@
         <v>3731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3708,13 +3684,13 @@
         <v>4640</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3723,13 +3699,13 @@
         <v>8371</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3720,13 @@
         <v>207490</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -3759,13 +3735,13 @@
         <v>213947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -3774,13 +3750,13 @@
         <v>421437</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3848,13 +3824,13 @@
         <v>948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3866,10 +3842,10 @@
         <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3878,13 +3854,13 @@
         <v>948</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,10 +3875,10 @@
         <v>262175</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>48</v>
@@ -3917,7 +3893,7 @@
         <v>48</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>32</v>
@@ -3929,10 +3905,10 @@
         <v>535290</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>48</v>
@@ -3991,7 +3967,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4003,13 +3979,13 @@
         <v>2846</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4018,13 +3994,13 @@
         <v>4773</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -4033,13 +4009,13 @@
         <v>7619</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,10 +4030,10 @@
         <v>653712</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>48</v>
@@ -4069,13 +4045,13 @@
         <v>686521</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>1220</v>
@@ -4084,13 +4060,13 @@
         <v>1340233</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,10 +4137,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4173,13 +4149,13 @@
         <v>5022</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4188,13 +4164,13 @@
         <v>5022</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,7 +4188,7 @@
         <v>48</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>32</v>
@@ -4224,13 +4200,13 @@
         <v>821145</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M26" s="7">
         <v>1501</v>
@@ -4239,13 +4215,13 @@
         <v>1599728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,10 +4292,10 @@
         <v>37</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4328,13 +4304,13 @@
         <v>20800</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="M28" s="7">
         <v>39</v>
@@ -4343,13 +4319,13 @@
         <v>42368</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,10 +4343,10 @@
         <v>46</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="H29" s="7">
         <v>3321</v>
@@ -4379,13 +4355,13 @@
         <v>3523742</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M29" s="7">
         <v>6530</v>
@@ -4394,13 +4370,13 @@
         <v>6896524</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,7 +4432,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C8BEAC-6245-48F2-A47F-FBBBBFAD0011}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77001783-C94D-4672-B864-CF076E057E24}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4497,7 +4473,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4604,13 +4580,13 @@
         <v>742</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4619,13 +4595,13 @@
         <v>952</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4634,13 +4610,13 @@
         <v>1694</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,10 +4631,10 @@
         <v>259556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>48</v>
@@ -4670,10 +4646,10 @@
         <v>270451</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>48</v>
@@ -4685,13 +4661,13 @@
         <v>530006</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4735,13 @@
         <v>4296</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4777,10 +4753,10 @@
         <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4789,13 +4765,13 @@
         <v>8542</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4786,13 @@
         <v>512049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>711</v>
@@ -4828,10 +4804,10 @@
         <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>1086</v>
@@ -4840,13 +4816,13 @@
         <v>1061644</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4890,13 @@
         <v>9541</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4929,13 +4905,13 @@
         <v>4460</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -4944,13 +4920,13 @@
         <v>14001</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4941,13 @@
         <v>312699</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
@@ -4980,13 +4956,13 @@
         <v>368824</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>874</v>
@@ -4995,13 +4971,13 @@
         <v>681523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,7 +5051,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5084,13 +5060,13 @@
         <v>4667</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5099,13 +5075,13 @@
         <v>7554</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,7 +5099,7 @@
         <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>48</v>
@@ -5135,13 +5111,13 @@
         <v>423889</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>880</v>
@@ -5150,13 +5126,13 @@
         <v>743242</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,7 +5188,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5224,13 +5200,13 @@
         <v>3882</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5239,13 +5215,13 @@
         <v>2932</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5254,13 +5230,13 @@
         <v>6814</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5251,13 @@
         <v>192866</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H17" s="7">
         <v>483</v>
@@ -5290,13 +5266,13 @@
         <v>228564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>756</v>
@@ -5305,13 +5281,13 @@
         <v>421430</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,7 +5343,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5379,13 +5355,13 @@
         <v>6137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -5394,13 +5370,13 @@
         <v>4655</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5409,13 +5385,13 @@
         <v>10792</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5406,13 @@
         <v>271086</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H20" s="7">
         <v>449</v>
@@ -5445,13 +5421,13 @@
         <v>270250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>808</v>
@@ -5460,13 +5436,13 @@
         <v>541335</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,7 +5498,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5534,13 +5510,13 @@
         <v>6584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -5549,13 +5525,13 @@
         <v>8984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -5564,13 +5540,13 @@
         <v>15568</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5561,13 @@
         <v>620393</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H23" s="7">
         <v>942</v>
@@ -5600,13 +5576,13 @@
         <v>794195</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="M23" s="7">
         <v>1532</v>
@@ -5615,13 +5591,13 @@
         <v>1414588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5665,13 @@
         <v>11149</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>303</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -5704,13 +5680,13 @@
         <v>7595</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -5719,13 +5695,13 @@
         <v>18745</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5716,13 @@
         <v>848279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>308</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H26" s="7">
         <v>1051</v>
@@ -5755,13 +5731,13 @@
         <v>858077</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>1801</v>
@@ -5770,13 +5746,13 @@
         <v>1706355</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5820,13 @@
         <v>45219</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>319</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -5859,13 +5835,13 @@
         <v>38490</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M28" s="7">
         <v>126</v>
@@ -5874,13 +5850,13 @@
         <v>83709</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>323</v>
+        <v>99</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>127</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5871,13 @@
         <v>3336279</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>324</v>
+        <v>155</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>5290</v>
@@ -5910,13 +5886,13 @@
         <v>3763845</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M29" s="7">
         <v>8603</v>
@@ -5925,13 +5901,13 @@
         <v>7100125</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>134</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,7 +5963,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1422-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84F762F4-32B5-42BB-A04C-4CB314A8826D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A22592AC-D21E-4BCE-80A8-9182991A8673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51E82AC3-AA6E-4529-8BFE-53B5F5A52A77}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B01EA755-3957-4C2C-9F8F-8B266BE9D2C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="323">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -85,922 +85,928 @@
     <t>2,09%</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709C9DB7-DCCD-4AFA-BBE3-78875AB8F3F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DFF9AB-FB50-4B6C-8DB4-24529B44D32E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1861,10 +1867,10 @@
         <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,13 +1885,13 @@
         <v>321121</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>315</v>
@@ -1894,13 +1900,13 @@
         <v>338852</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>631</v>
@@ -1909,13 +1915,13 @@
         <v>659973</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,7 +1977,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1983,13 +1989,13 @@
         <v>7625</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1998,13 +2004,13 @@
         <v>5037</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2013,13 +2019,13 @@
         <v>12662</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2040,13 @@
         <v>661095</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>622</v>
@@ -2049,13 +2055,13 @@
         <v>671159</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>1240</v>
@@ -2323,13 +2329,13 @@
         <v>3115</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,13 +2350,13 @@
         <v>273022</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7">
         <v>266</v>
@@ -2359,13 +2365,13 @@
         <v>275939</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2374,13 +2380,13 @@
         <v>548962</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,7 +2442,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2448,13 +2454,13 @@
         <v>1878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2463,13 +2469,13 @@
         <v>4233</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2505,7 +2511,7 @@
         <v>106</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
         <v>632</v>
@@ -2517,10 +2523,10 @@
         <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>1248</v>
@@ -2532,10 +2538,10 @@
         <v>82</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,7 +2597,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2603,13 +2609,13 @@
         <v>6417</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2618,13 +2624,13 @@
         <v>3321</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -2633,13 +2639,13 @@
         <v>9738</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,10 +2660,10 @@
         <v>772681</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>105</v>
@@ -2776,10 +2782,10 @@
         <v>128</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>54</v>
@@ -2788,13 +2794,13 @@
         <v>59001</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,7 +2836,7 @@
         <v>136</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="M29" s="7">
         <v>6451</v>
@@ -2839,13 +2845,13 @@
         <v>6922876</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,7 +2931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA94D51-3E6C-4D60-A721-3CF34D7D18DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911A515D-2C4B-4B00-9CEF-14DA052EE12A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3052,7 +3058,7 @@
         <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>142</v>
@@ -3070,7 +3076,7 @@
         <v>143</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3079,13 +3085,13 @@
         <v>2529</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,10 +3106,10 @@
         <v>291232</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>124</v>
@@ -3115,10 +3121,10 @@
         <v>288703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>32</v>
@@ -3130,13 +3136,13 @@
         <v>579935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3210,13 @@
         <v>6191</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3225,7 +3231,7 @@
         <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3234,13 +3240,13 @@
         <v>6191</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3261,13 @@
         <v>496384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>484</v>
@@ -3270,7 +3276,7 @@
         <v>523084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>120</v>
@@ -3285,13 +3291,13 @@
         <v>1019468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3365,13 @@
         <v>2433</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3374,13 +3380,13 @@
         <v>997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3389,13 +3395,13 @@
         <v>3430</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3416,13 @@
         <v>316132</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>331</v>
@@ -3425,13 +3431,13 @@
         <v>335312</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M11" s="7">
         <v>663</v>
@@ -3440,10 +3446,10 @@
         <v>651444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>122</v>
@@ -3502,7 +3508,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3517,10 +3523,10 @@
         <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3529,13 +3535,13 @@
         <v>5368</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3544,13 +3550,13 @@
         <v>8258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3571,13 @@
         <v>367075</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>354</v>
@@ -3580,13 +3586,13 @@
         <v>381915</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>705</v>
@@ -3595,13 +3601,13 @@
         <v>748989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3675,13 @@
         <v>3731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3684,13 +3690,13 @@
         <v>4640</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3699,13 +3705,13 @@
         <v>8371</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,10 +3726,10 @@
         <v>207490</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>82</v>
@@ -3735,13 +3741,13 @@
         <v>213947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -3750,13 +3756,13 @@
         <v>421437</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3830,13 @@
         <v>948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3845,7 +3851,7 @@
         <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3854,13 +3860,13 @@
         <v>948</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3881,13 @@
         <v>262175</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7">
         <v>263</v>
@@ -3890,10 +3896,10 @@
         <v>273115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>32</v>
@@ -3905,13 +3911,13 @@
         <v>535290</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,7 +3973,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3979,13 +3985,13 @@
         <v>2846</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3994,13 +4000,13 @@
         <v>4773</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -4009,13 +4015,13 @@
         <v>7619</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>53</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4036,13 @@
         <v>653712</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
         <v>642</v>
@@ -4045,13 +4051,13 @@
         <v>686521</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>1220</v>
@@ -4060,13 +4066,13 @@
         <v>1340233</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,7 +4128,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4140,7 +4146,7 @@
         <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4149,13 +4155,13 @@
         <v>5022</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4164,13 +4170,13 @@
         <v>5022</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,10 +4191,10 @@
         <v>778583</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>32</v>
@@ -4203,10 +4209,10 @@
         <v>107</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>1501</v>
@@ -4215,13 +4221,13 @@
         <v>1599728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,10 +4298,10 @@
         <v>37</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4304,13 +4310,13 @@
         <v>20800</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>39</v>
@@ -4319,13 +4325,13 @@
         <v>42368</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4346,13 @@
         <v>3372782</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="H29" s="7">
         <v>3321</v>
@@ -4355,13 +4361,13 @@
         <v>3523742</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="M29" s="7">
         <v>6530</v>
@@ -4373,10 +4379,10 @@
         <v>107</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,7 +4462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77001783-C94D-4672-B864-CF076E057E24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFBC94-10FB-4A45-985A-B418BD551F08}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4473,7 +4479,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4586,7 +4592,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4601,7 +4607,7 @@
         <v>38</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4610,13 +4616,13 @@
         <v>1694</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4637,13 @@
         <v>259556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7">
         <v>536</v>
@@ -4646,13 +4652,13 @@
         <v>270451</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" s="7">
         <v>866</v>
@@ -4661,13 +4667,13 @@
         <v>530006</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4741,13 @@
         <v>4296</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4753,10 +4759,10 @@
         <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4765,13 +4771,13 @@
         <v>8542</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4792,13 @@
         <v>512049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>711</v>
@@ -4801,13 +4807,13 @@
         <v>549595</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>1086</v>
@@ -4816,13 +4822,13 @@
         <v>1061644</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4896,13 @@
         <v>9541</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4905,13 +4911,13 @@
         <v>4460</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -4920,13 +4926,13 @@
         <v>14001</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4947,13 @@
         <v>312699</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
@@ -4956,13 +4962,13 @@
         <v>368824</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
         <v>874</v>
@@ -4971,13 +4977,13 @@
         <v>681523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,7 +5039,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5051,7 +5057,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5060,13 +5066,13 @@
         <v>4667</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5075,13 +5081,13 @@
         <v>7554</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5102,13 @@
         <v>319353</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -5111,13 +5117,13 @@
         <v>423889</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>880</v>
@@ -5126,13 +5132,13 @@
         <v>743242</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5206,13 @@
         <v>3882</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5215,13 +5221,13 @@
         <v>2932</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5230,13 +5236,13 @@
         <v>6814</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>271</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5257,13 @@
         <v>192866</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>483</v>
@@ -5266,13 +5272,13 @@
         <v>228564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>756</v>
@@ -5281,13 +5287,13 @@
         <v>421430</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5361,13 @@
         <v>6137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>279</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -5370,13 +5376,13 @@
         <v>4655</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5385,13 +5391,13 @@
         <v>10792</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>283</v>
+        <v>147</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5412,13 @@
         <v>271086</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>449</v>
@@ -5421,13 +5427,13 @@
         <v>270250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="M20" s="7">
         <v>808</v>
@@ -5436,13 +5442,13 @@
         <v>541335</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,7 +5504,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5510,13 +5516,13 @@
         <v>6584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -5525,13 +5531,13 @@
         <v>8984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -5540,13 +5546,13 @@
         <v>15568</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5567,13 @@
         <v>620393</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>942</v>
@@ -5576,13 +5582,13 @@
         <v>794195</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="M23" s="7">
         <v>1532</v>
@@ -5591,13 +5597,13 @@
         <v>1414588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,7 +5659,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5665,13 +5671,13 @@
         <v>11149</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>304</v>
+        <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -5680,13 +5686,13 @@
         <v>7595</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>196</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -5695,13 +5701,13 @@
         <v>18745</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,13 +5722,13 @@
         <v>848279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="H26" s="7">
         <v>1051</v>
@@ -5731,13 +5737,13 @@
         <v>858077</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="M26" s="7">
         <v>1801</v>
@@ -5746,13 +5752,13 @@
         <v>1706355</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5826,13 @@
         <v>45219</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>314</v>
+        <v>112</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -5835,13 +5841,13 @@
         <v>38490</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M28" s="7">
         <v>126</v>
@@ -5850,13 +5856,13 @@
         <v>83709</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>316</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5877,13 @@
         <v>3336279</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>119</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="H29" s="7">
         <v>5290</v>
@@ -5886,13 +5892,13 @@
         <v>3763845</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>94</v>
+        <v>293</v>
       </c>
       <c r="M29" s="7">
         <v>8603</v>
@@ -5901,13 +5907,13 @@
         <v>7100125</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>320</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>106</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1422-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A22592AC-D21E-4BCE-80A8-9182991A8673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7703C2B-EE26-4047-9C0B-BD54148A7280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B01EA755-3957-4C2C-9F8F-8B266BE9D2C3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5CF1B45E-A2F3-4D9B-9992-E5267EB052B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="322">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -73,12 +73,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -136,9 +190,6 @@
     <t>99,24%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -154,9 +205,6 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,3%</t>
   </si>
   <si>
@@ -181,9 +229,6 @@
     <t>97,7%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,23%</t>
   </si>
   <si>
@@ -193,441 +238,435 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
     <t>95,13%</t>
   </si>
   <si>
@@ -664,9 +703,6 @@
     <t>99,11%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
     <t>1,65%</t>
   </si>
   <si>
@@ -676,9 +712,6 @@
     <t>1,25%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
     <t>98,35%</t>
   </si>
   <si>
@@ -688,9 +721,6 @@
     <t>98,75%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>1,58%</t>
   </si>
   <si>
@@ -700,9 +730,6 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
     <t>98,42%</t>
   </si>
   <si>
@@ -727,286 +754,256 @@
     <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DFF9AB-FB50-4B6C-8DB4-24529B44D32E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC2D809-9A81-4AE5-B8E1-4D0EC82AD9D5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1536,88 +1533,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4768</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1014</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5782</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="D5" s="7">
+        <v>289970</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="I5" s="7">
+        <v>286231</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>532</v>
+      </c>
+      <c r="N5" s="7">
+        <v>576201</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,48 +1635,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1679,13 +1694,13 @@
         <v>10584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -1694,13 +1709,13 @@
         <v>4539</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -1709,19 +1724,19 @@
         <v>15123</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>465</v>
@@ -1730,13 +1745,13 @@
         <v>494943</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>476</v>
@@ -1745,13 +1760,13 @@
         <v>519226</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>941</v>
@@ -1760,13 +1775,13 @@
         <v>1014169</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,13 +1796,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -1796,13 +1811,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -1811,18 +1826,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1834,13 +1849,13 @@
         <v>2925</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1849,13 +1864,13 @@
         <v>2168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1864,19 +1879,19 @@
         <v>5093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>316</v>
@@ -1885,13 +1900,13 @@
         <v>321121</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>315</v>
@@ -1900,13 +1915,13 @@
         <v>338852</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>631</v>
@@ -1915,13 +1930,13 @@
         <v>659973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1951,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -1951,13 +1966,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -1966,117 +1981,117 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>7625</v>
+        <v>2856</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4023</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="7">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7">
+        <v>6880</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5037</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="7">
-        <v>13</v>
-      </c>
-      <c r="N13" s="7">
-        <v>12662</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>618</v>
+        <v>341</v>
       </c>
       <c r="D14" s="7">
-        <v>661095</v>
+        <v>371126</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>622</v>
+        <v>367</v>
       </c>
       <c r="I14" s="7">
-        <v>671159</v>
+        <v>384928</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>1240</v>
+        <v>708</v>
       </c>
       <c r="N14" s="7">
-        <v>1332254</v>
+        <v>756053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,54 +2100,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2144,13 +2159,13 @@
         <v>3235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2159,13 +2174,13 @@
         <v>3923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2174,19 +2189,19 @@
         <v>7158</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>193</v>
@@ -2195,13 +2210,13 @@
         <v>209383</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>208</v>
@@ -2210,13 +2225,13 @@
         <v>215668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -2225,13 +2240,13 @@
         <v>425051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2261,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2261,13 +2276,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2276,18 +2291,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2299,13 +2314,13 @@
         <v>959</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2314,13 +2329,13 @@
         <v>2157</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2329,19 +2344,19 @@
         <v>3115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>260</v>
@@ -2350,13 +2365,13 @@
         <v>273022</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7">
         <v>266</v>
@@ -2365,13 +2380,13 @@
         <v>275939</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2380,13 +2395,13 @@
         <v>548962</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2416,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2416,13 +2431,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2431,18 +2446,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2454,13 +2469,13 @@
         <v>1878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2469,13 +2484,13 @@
         <v>4233</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2484,19 +2499,19 @@
         <v>6111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>616</v>
@@ -2505,13 +2520,13 @@
         <v>660910</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
         <v>632</v>
@@ -2520,13 +2535,13 @@
         <v>689620</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>1248</v>
@@ -2535,13 +2550,13 @@
         <v>1350530</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2571,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2571,13 +2586,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2586,18 +2601,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2609,13 +2624,13 @@
         <v>6417</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2624,13 +2639,13 @@
         <v>3321</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -2639,19 +2654,19 @@
         <v>9738</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>711</v>
@@ -2660,13 +2675,13 @@
         <v>772681</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H26" s="7">
         <v>753</v>
@@ -2675,13 +2690,13 @@
         <v>819257</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>1464</v>
@@ -2690,13 +2705,13 @@
         <v>1591938</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2726,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>756</v>
@@ -2726,13 +2741,13 @@
         <v>822578</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1473</v>
@@ -2741,13 +2756,13 @@
         <v>1601676</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,13 +2779,13 @@
         <v>33622</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -2779,13 +2794,13 @@
         <v>25379</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>54</v>
@@ -2794,19 +2809,19 @@
         <v>59001</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3179</v>
@@ -2815,13 +2830,13 @@
         <v>3393157</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>3272</v>
@@ -2830,13 +2845,13 @@
         <v>3529719</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M29" s="7">
         <v>6451</v>
@@ -2845,13 +2860,13 @@
         <v>6922876</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2881,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3296</v>
@@ -2881,13 +2896,13 @@
         <v>3555098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6505</v>
@@ -2896,18 +2911,18 @@
         <v>6981877</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2931,7 +2946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911A515D-2C4B-4B00-9CEF-14DA052EE12A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C698C-985F-407F-8CC0-BA71AC76B88E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2948,7 +2963,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3055,13 +3070,13 @@
         <v>2529</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3070,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3085,19 +3100,19 @@
         <v>2529</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>263</v>
@@ -3106,13 +3121,13 @@
         <v>291232</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>277</v>
@@ -3121,13 +3136,13 @@
         <v>288703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M5" s="7">
         <v>540</v>
@@ -3136,13 +3151,13 @@
         <v>579935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3172,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -3172,13 +3187,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -3187,18 +3202,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3210,13 +3225,13 @@
         <v>6191</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3225,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3240,19 +3255,19 @@
         <v>6191</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>469</v>
@@ -3261,13 +3276,13 @@
         <v>496384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>484</v>
@@ -3276,13 +3291,13 @@
         <v>523084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>953</v>
@@ -3291,13 +3306,13 @@
         <v>1019468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,13 +3327,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3327,13 +3342,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3342,18 +3357,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3365,13 +3380,13 @@
         <v>2433</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3380,13 +3395,13 @@
         <v>997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3395,19 +3410,19 @@
         <v>3430</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>332</v>
@@ -3416,13 +3431,13 @@
         <v>316132</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>331</v>
@@ -3431,13 +3446,13 @@
         <v>335312</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>663</v>
@@ -3446,13 +3461,13 @@
         <v>651444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3482,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3482,13 +3497,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3497,18 +3512,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3520,13 +3535,13 @@
         <v>2889</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3535,13 +3550,13 @@
         <v>5368</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3550,19 +3565,19 @@
         <v>8258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>351</v>
@@ -3571,13 +3586,13 @@
         <v>367075</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>354</v>
@@ -3586,13 +3601,13 @@
         <v>381915</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>705</v>
@@ -3601,13 +3616,13 @@
         <v>748989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3637,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3637,13 +3652,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3652,18 +3667,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3675,13 +3690,13 @@
         <v>3731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3690,13 +3705,13 @@
         <v>4640</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3705,19 +3720,19 @@
         <v>8371</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>208</v>
@@ -3726,13 +3741,13 @@
         <v>207490</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -3741,13 +3756,13 @@
         <v>213947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -3756,13 +3771,13 @@
         <v>421437</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3792,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3792,13 +3807,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3807,18 +3822,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3830,13 +3845,13 @@
         <v>948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3845,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3860,19 +3875,19 @@
         <v>948</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>258</v>
@@ -3881,13 +3896,13 @@
         <v>262175</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7">
         <v>263</v>
@@ -3896,13 +3911,13 @@
         <v>273115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M20" s="7">
         <v>521</v>
@@ -3911,13 +3926,13 @@
         <v>535290</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3947,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -3947,13 +3962,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -3962,18 +3977,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3985,13 +4000,13 @@
         <v>2846</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4000,13 +4015,13 @@
         <v>4773</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -4015,19 +4030,19 @@
         <v>7619</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>578</v>
@@ -4036,13 +4051,13 @@
         <v>653712</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
         <v>642</v>
@@ -4051,13 +4066,13 @@
         <v>686521</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="M23" s="7">
         <v>1220</v>
@@ -4066,13 +4081,13 @@
         <v>1340233</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4102,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -4102,13 +4117,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -4117,18 +4132,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4140,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4155,13 +4170,13 @@
         <v>5022</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4170,19 +4185,19 @@
         <v>5022</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>750</v>
@@ -4191,13 +4206,13 @@
         <v>778583</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H26" s="7">
         <v>751</v>
@@ -4206,13 +4221,13 @@
         <v>821145</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>1501</v>
@@ -4221,13 +4236,13 @@
         <v>1599728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4257,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -4257,13 +4272,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4272,13 +4287,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4310,13 @@
         <v>21568</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4310,13 +4325,13 @@
         <v>20800</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="M28" s="7">
         <v>39</v>
@@ -4325,19 +4340,19 @@
         <v>42368</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3209</v>
@@ -4346,13 +4361,13 @@
         <v>3372782</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>3321</v>
@@ -4361,13 +4376,13 @@
         <v>3523742</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="M29" s="7">
         <v>6530</v>
@@ -4376,13 +4391,13 @@
         <v>6896524</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4412,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4412,13 +4427,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4427,18 +4442,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4462,7 +4477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFBC94-10FB-4A45-985A-B418BD551F08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC5F654-13B1-402B-841C-2FCF84ECF7D6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4479,7 +4494,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4583,97 +4598,97 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>742</v>
+        <v>786</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>952</v>
+        <v>1004</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1694</v>
+        <v>1790</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>330</v>
       </c>
       <c r="D5" s="7">
-        <v>259556</v>
+        <v>310657</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
         <v>536</v>
       </c>
       <c r="I5" s="7">
-        <v>270451</v>
+        <v>288631</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>866</v>
       </c>
       <c r="N5" s="7">
-        <v>530006</v>
+        <v>599287</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,51 +4700,51 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4738,97 +4753,97 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>4296</v>
+        <v>4027</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>4246</v>
+        <v>3671</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>8542</v>
+        <v>7697</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>375</v>
       </c>
       <c r="D8" s="7">
-        <v>512049</v>
+        <v>511617</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>711</v>
       </c>
       <c r="I8" s="7">
-        <v>549595</v>
+        <v>510620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>1086</v>
       </c>
       <c r="N8" s="7">
-        <v>1061644</v>
+        <v>1022238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,51 +4855,51 @@
         <v>379</v>
       </c>
       <c r="D9" s="7">
-        <v>516345</v>
+        <v>515644</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553841</v>
+        <v>514291</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1095</v>
       </c>
       <c r="N9" s="7">
-        <v>1070186</v>
+        <v>1029935</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4893,97 +4908,97 @@
         <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>9541</v>
+        <v>9083</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>4460</v>
+        <v>4139</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>14001</v>
+        <v>13222</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>346</v>
       </c>
       <c r="D11" s="7">
-        <v>312699</v>
+        <v>306967</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
       </c>
       <c r="I11" s="7">
-        <v>368824</v>
+        <v>344989</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>874</v>
       </c>
       <c r="N11" s="7">
-        <v>681523</v>
+        <v>651956</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,51 +5010,51 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5048,97 +5063,97 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>2887</v>
+        <v>2600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>4667</v>
+        <v>4303</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>7554</v>
+        <v>6903</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>290</v>
       </c>
       <c r="D14" s="7">
-        <v>319353</v>
+        <v>309957</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
       </c>
       <c r="I14" s="7">
-        <v>423889</v>
+        <v>471415</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>880</v>
       </c>
       <c r="N14" s="7">
-        <v>743242</v>
+        <v>781371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,51 +5165,51 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5203,97 +5218,97 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>3882</v>
+        <v>3491</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>2932</v>
+        <v>2694</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>6814</v>
+        <v>6185</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>22</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>273</v>
       </c>
       <c r="D17" s="7">
-        <v>192866</v>
+        <v>175251</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>483</v>
       </c>
       <c r="I17" s="7">
-        <v>228564</v>
+        <v>205580</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>756</v>
       </c>
       <c r="N17" s="7">
-        <v>421430</v>
+        <v>380831</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,51 +5320,51 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5358,97 +5373,97 @@
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>6137</v>
+        <v>5893</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>4655</v>
+        <v>4361</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>285</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>10792</v>
+        <v>10253</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>359</v>
       </c>
       <c r="D20" s="7">
-        <v>271086</v>
+        <v>263743</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
         <v>449</v>
       </c>
       <c r="I20" s="7">
-        <v>270250</v>
+        <v>252026</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>808</v>
       </c>
       <c r="N20" s="7">
-        <v>541335</v>
+        <v>515770</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,51 +5475,51 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5513,97 +5528,97 @@
         <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>6584</v>
+        <v>6192</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>295</v>
+        <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>8984</v>
+        <v>8318</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>298</v>
+        <v>57</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
       </c>
       <c r="N22" s="7">
-        <v>15568</v>
+        <v>14510</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>590</v>
       </c>
       <c r="D23" s="7">
-        <v>620393</v>
+        <v>617368</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>300</v>
+        <v>27</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="H23" s="7">
         <v>942</v>
       </c>
       <c r="I23" s="7">
-        <v>794195</v>
+        <v>839996</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>303</v>
+        <v>64</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>1532</v>
       </c>
       <c r="N23" s="7">
-        <v>1414588</v>
+        <v>1457365</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,51 +5630,51 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626977</v>
+        <v>623560</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>957</v>
       </c>
       <c r="I24" s="7">
-        <v>803179</v>
+        <v>848314</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1555</v>
       </c>
       <c r="N24" s="7">
-        <v>1430156</v>
+        <v>1471875</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5668,13 +5683,13 @@
         <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>11149</v>
+        <v>9534</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>68</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>306</v>
@@ -5683,82 +5698,82 @@
         <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>7595</v>
+        <v>6309</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
       </c>
       <c r="N25" s="7">
-        <v>18745</v>
+        <v>15843</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>750</v>
       </c>
       <c r="D26" s="7">
-        <v>848279</v>
+        <v>919186</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="H26" s="7">
         <v>1051</v>
       </c>
       <c r="I26" s="7">
-        <v>858077</v>
+        <v>709083</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>1801</v>
       </c>
       <c r="N26" s="7">
-        <v>1706355</v>
+        <v>1628269</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,46 +5785,46 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,28 +5838,28 @@
         <v>59</v>
       </c>
       <c r="D28" s="7">
-        <v>45219</v>
+        <v>41606</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>302</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
       </c>
       <c r="I28" s="7">
-        <v>38490</v>
+        <v>34797</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>317</v>
@@ -5853,67 +5868,67 @@
         <v>126</v>
       </c>
       <c r="N28" s="7">
-        <v>83709</v>
+        <v>76403</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>318</v>
+        <v>128</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>319</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3313</v>
       </c>
       <c r="D29" s="7">
-        <v>3336279</v>
+        <v>3414746</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>119</v>
+        <v>305</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="H29" s="7">
         <v>5290</v>
       </c>
       <c r="I29" s="7">
-        <v>3763845</v>
+        <v>3622340</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>8603</v>
       </c>
       <c r="N29" s="7">
-        <v>7100125</v>
+        <v>7037087</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,51 +5940,51 @@
         <v>3372</v>
       </c>
       <c r="D30" s="7">
-        <v>3381498</v>
+        <v>3456352</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5357</v>
       </c>
       <c r="I30" s="7">
-        <v>3802335</v>
+        <v>3657137</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8729</v>
       </c>
       <c r="N30" s="7">
-        <v>7183834</v>
+        <v>7113490</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
